--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/20/seed1/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.997199999999996</v>
+        <v>-6.782899999999996</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.83739999999997</v>
+        <v>-20.83639999999998</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.95440000000001</v>
+        <v>-23.06720000000001</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.8633</v>
+        <v>-21.90619999999998</v>
       </c>
       <c r="B7" t="n">
-        <v>5.384800000000004</v>
+        <v>5.303200000000003</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.3479</v>
+        <v>-22.25260000000001</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -618,7 +618,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>5.611599999999997</v>
+        <v>5.647699999999998</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -635,13 +635,13 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.657299999999999</v>
+        <v>5.962599999999997</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.3491</v>
+        <v>-11.28900000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.923300000000006</v>
+        <v>-8.043500000000003</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -655,10 +655,10 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-13.27319999999999</v>
+        <v>-12.85199999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.647400000000005</v>
+        <v>-8.815000000000005</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-14.5758</v>
+        <v>-14.649</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.163099999999995</v>
+        <v>5.303999999999994</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.51769999999999</v>
+        <v>-21.48009999999998</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.7372</v>
+        <v>-11.5799</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.81300000000001</v>
+        <v>-12.95300000000001</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -768,13 +768,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.1832</v>
+        <v>-22.5585</v>
       </c>
       <c r="B20" t="n">
-        <v>5.539800000000001</v>
+        <v>5.000999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.0594</v>
+        <v>-13.52589999999999</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -785,10 +785,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-22.36060000000001</v>
+        <v>-22.2801</v>
       </c>
       <c r="B21" t="n">
-        <v>4.952299999999997</v>
+        <v>5.361699999999997</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -805,13 +805,13 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>9.0482</v>
+        <v>9.0807</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.34919999999999</v>
+        <v>-12.4142</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.113299999999999</v>
+        <v>-8.178499999999998</v>
       </c>
       <c r="E22" t="n">
         <v>16.18</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>9.319199999999997</v>
+        <v>9.426799999999997</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.587599999999998</v>
+        <v>-8.3314</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.0363</v>
+        <v>-22.08519999999999</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,16 +921,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.75890000000002</v>
+        <v>-21.63710000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>4.742599999999999</v>
+        <v>5.074199999999999</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.773699999999996</v>
+        <v>-6.949199999999995</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-21.5351</v>
+        <v>-21.61060000000001</v>
       </c>
       <c r="B30" t="n">
         <v>5.27</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.36950000000001</v>
+        <v>-21.273</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,13 +1009,13 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>8.310300000000003</v>
+        <v>8.563200000000002</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-8.088000000000003</v>
+        <v>-7.972700000000003</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.95770000000001</v>
+        <v>-13.0074</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.06099999999999</v>
+        <v>-18.9471</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>10.1516</v>
+        <v>10.5169</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1162,13 +1162,13 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>4.513899999999995</v>
+        <v>4.523799999999992</v>
       </c>
       <c r="C43" t="n">
-        <v>-14.33269999999999</v>
+        <v>-14.42969999999998</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.571600000000002</v>
+        <v>-8.647899999999995</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1179,7 +1179,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>4.781700000000003</v>
+        <v>4.726999999999999</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.134100000000002</v>
+        <v>5.194100000000001</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.75810000000001</v>
+        <v>-21.55830000000001</v>
       </c>
       <c r="B46" t="n">
-        <v>5.611200000000004</v>
+        <v>5.634000000000002</v>
       </c>
       <c r="C46" t="n">
-        <v>-11.10330000000001</v>
+        <v>-11.28400000000001</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.827399999999996</v>
+        <v>-8.131300000000003</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1281,10 +1281,10 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.726699999999997</v>
+        <v>4.847799999999998</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.66489999999999</v>
+        <v>-13.64679999999999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-22.2053</v>
+        <v>-22.27029999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>5.180099999999997</v>
+        <v>5.328799999999998</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.17769999999999</v>
+        <v>-22.2247</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,10 +1397,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.9034</v>
+        <v>-23.0029</v>
       </c>
       <c r="B57" t="n">
-        <v>4.845599999999995</v>
+        <v>4.833599999999997</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.4243</v>
+        <v>-22.42179999999998</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1457,7 +1457,7 @@
         <v>-13.33</v>
       </c>
       <c r="D60" t="n">
-        <v>-8.6197</v>
+        <v>-8.626999999999999</v>
       </c>
       <c r="E60" t="n">
         <v>16.4</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.3918</v>
+        <v>-22.31499999999999</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1536,7 +1536,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>5.628600000000003</v>
+        <v>5.819300000000001</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.5184</v>
+        <v>-21.50269999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>4.732799999999997</v>
+        <v>4.876299999999995</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>4.899099999999998</v>
+        <v>5.303599999999997</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1593,7 +1593,7 @@
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.441399999999996</v>
+        <v>-6.689299999999998</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.653499999999996</v>
+        <v>-6.774799999999996</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1644,7 +1644,7 @@
         <v>-9.93</v>
       </c>
       <c r="D71" t="n">
-        <v>-7.145299999999995</v>
+        <v>-7.416099999999996</v>
       </c>
       <c r="E71" t="n">
         <v>17.13</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-18.99359999999998</v>
+        <v>-19.12009999999998</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.208000000000004</v>
+        <v>-8.212400000000001</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-22.03099999999998</v>
+        <v>-21.88209999999999</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.0602</v>
+        <v>-12.028</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.23069999999999</v>
+        <v>-20.28169999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.265700000000002</v>
+        <v>-8.296000000000003</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.962900000000008</v>
+        <v>9.964600000000011</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.647300000000001</v>
+        <v>5.0854</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1910,13 +1910,13 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.656199999999996</v>
+        <v>4.682199999999996</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.615499999999992</v>
+        <v>-8.62539999999999</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1992,16 +1992,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.52790000000001</v>
+        <v>-21.57400000000002</v>
       </c>
       <c r="B92" t="n">
-        <v>4.590099999999999</v>
+        <v>4.832099999999998</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.2258</v>
+        <v>-6.279199999999999</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-10.85240000000001</v>
+        <v>-11.08660000000001</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2080,10 +2080,10 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>6.307899999999997</v>
+        <v>6.431799999999996</v>
       </c>
       <c r="C97" t="n">
-        <v>-10.96070000000001</v>
+        <v>-11.27660000000001</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-11.97110000000001</v>
+        <v>-12.04080000000001</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.2999</v>
+        <v>-22.4204</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2154,7 +2154,7 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.1472</v>
+        <v>-7.980300000000003</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
